--- a/tut04/output_by_subject/EE201.xlsx
+++ b/tut04/output_by_subject/EE201.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,858 +424,273 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>rollno</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>register_sem</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>subno</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>sub_type</t>
+          <t>rollnoregister_semsubnosub_type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2001EE04</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE043EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2001EE05</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE053EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2001EE08</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE083EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2001EE10</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE103EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2001EE15</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE153EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2001EE17</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE173EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2001EE21</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE213EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2001EE22</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE223EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2001EE25</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE253EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2001EE34</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE343EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2001EE35</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE353EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2001EE42</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE423EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2001EE43</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE433EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2001EE44</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE443EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2001EE46</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE463EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2001EE53</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE533EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2001EE55</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE553EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2001EE58</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE583EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2001EE59</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE593EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2001EE61</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE613EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2001EE67</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE673EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2001EE74</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE743EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2001EE76</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE763EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2001EE77</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE773EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2001EE79</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE793EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2001EE80</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE803EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2001EE82</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE823EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2001EE75</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE753EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2001EE68</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE683EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2001EE64</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE643EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2001EE50</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE503EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2001EE40</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE403EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2001EE33</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE333EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2001EE28</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE283EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2001EE24</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE243EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2001EE13</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE133EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2001EE12</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE123EE201CORE</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2001EE01</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>EE201</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001EE013EE201CORE</t>
         </is>
       </c>
     </row>
